--- a/表生成模板.xlsx
+++ b/表生成模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,32 +52,37 @@
     <t>VARCHAR</t>
   </si>
   <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>deviceinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TINYINT</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>deviceinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +425,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,22 +466,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -484,7 +489,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
@@ -493,7 +498,7 @@
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>0</v>
@@ -501,12 +506,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
